--- a/public/template-excel/SaldoAwalSimpanan.xlsx
+++ b/public/template-excel/SaldoAwalSimpanan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satriaptbtb/Sites/simpin/public/template-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2030C834-C592-40D9-B9F0-C9D6BD2DBF10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01646283-30D8-334B-A26F-45A2075A38AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FE86F9AD-9F0D-4774-A8F3-6291D644C101}"/>
+    <workbookView xWindow="-120" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{FE86F9AD-9F0D-4774-A8F3-6291D644C101}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,39 +34,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>kode_anggota</t>
-  </si>
-  <si>
-    <t>kode_trans</t>
-  </si>
-  <si>
-    <t>besar_tabungan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>batch</t>
   </si>
   <si>
-    <t>deskripsi</t>
+    <t>NO_ANGGOTA</t>
   </si>
   <si>
-    <t>411.12.000</t>
+    <t>PKK</t>
   </si>
   <si>
-    <t>SIMPANAN WAJIB 2021</t>
+    <t>411.01.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -87,13 +98,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,52 +424,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFF038B-F63C-466B-BA4E-B382A54F2C98}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>10757</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5655</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>10000</v>
-      </c>
-      <c r="D2">
-        <v>2021</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="C2" s="4">
+        <v>500000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>44926</v>
       </c>
     </row>
   </sheetData>
